--- a/data/pca/factorExposure/factorExposure_2017-08-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02377301002319786</v>
+        <v>-0.01010081296962354</v>
       </c>
       <c r="C2">
-        <v>0.0005277496824042698</v>
+        <v>-0.04352417862095564</v>
       </c>
       <c r="D2">
-        <v>0.01783961784799249</v>
+        <v>0.02981014901414895</v>
       </c>
       <c r="E2">
-        <v>0.01086188443675476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03344142675234827</v>
+      </c>
+      <c r="F2">
+        <v>-0.01172106109283561</v>
+      </c>
+      <c r="G2">
+        <v>-0.07228177318192459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01594667669761414</v>
+        <v>-0.05915838807700589</v>
       </c>
       <c r="C3">
-        <v>0.05206174715880096</v>
+        <v>-0.07031812777834356</v>
       </c>
       <c r="D3">
-        <v>-0.001398493193326922</v>
+        <v>0.01488187081893987</v>
       </c>
       <c r="E3">
-        <v>-0.01344303346292998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1022595235804949</v>
+      </c>
+      <c r="F3">
+        <v>-0.03616383689653681</v>
+      </c>
+      <c r="G3">
+        <v>-0.1594782083903363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02358054171250632</v>
+        <v>-0.06092734289829733</v>
       </c>
       <c r="C4">
-        <v>0.01998913481673692</v>
+        <v>-0.0635409298000869</v>
       </c>
       <c r="D4">
-        <v>0.06417170354439762</v>
+        <v>0.02343250852282391</v>
       </c>
       <c r="E4">
-        <v>-0.01140089379093294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02187667697673732</v>
+      </c>
+      <c r="F4">
+        <v>-0.00738955724947335</v>
+      </c>
+      <c r="G4">
+        <v>-0.07295716510862238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01513421333364276</v>
+        <v>-0.0413491286987739</v>
       </c>
       <c r="C6">
-        <v>0.009840659227176895</v>
+        <v>-0.05165147412795857</v>
       </c>
       <c r="D6">
-        <v>0.08861616717805973</v>
+        <v>0.01587600702020893</v>
       </c>
       <c r="E6">
-        <v>-0.003567456705032931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02086649337221262</v>
+      </c>
+      <c r="F6">
+        <v>-0.01156837211613563</v>
+      </c>
+      <c r="G6">
+        <v>-0.04988262344394077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01055755189334578</v>
+        <v>-0.01986990961446763</v>
       </c>
       <c r="C7">
-        <v>0.006337650523815326</v>
+        <v>-0.0402151786463596</v>
       </c>
       <c r="D7">
-        <v>0.03787613577047834</v>
+        <v>0.0133212577357465</v>
       </c>
       <c r="E7">
-        <v>-0.06022455254842535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005606322843163948</v>
+      </c>
+      <c r="F7">
+        <v>0.003262407353594683</v>
+      </c>
+      <c r="G7">
+        <v>-0.1132462082714201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>2.867119369443782e-05</v>
+        <v>-0.001940772392572939</v>
       </c>
       <c r="C8">
-        <v>0.0008875238092143299</v>
+        <v>-0.02105488249344404</v>
       </c>
       <c r="D8">
-        <v>0.0010550701708954</v>
+        <v>0.003666546318366192</v>
       </c>
       <c r="E8">
-        <v>-0.01075527836747139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0229508256515602</v>
+      </c>
+      <c r="F8">
+        <v>-0.01697686642660106</v>
+      </c>
+      <c r="G8">
+        <v>-0.04634150991156341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01630544042272586</v>
+        <v>-0.03618664009148592</v>
       </c>
       <c r="C9">
-        <v>0.02062865704090979</v>
+        <v>-0.04413498990093931</v>
       </c>
       <c r="D9">
-        <v>0.04736734655767058</v>
+        <v>0.01594588826546472</v>
       </c>
       <c r="E9">
-        <v>-0.003404076923848888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01490060513408827</v>
+      </c>
+      <c r="F9">
+        <v>-0.01197460309827516</v>
+      </c>
+      <c r="G9">
+        <v>-0.07740414565857717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02022615120773636</v>
+        <v>-0.09037371921129445</v>
       </c>
       <c r="C10">
-        <v>0.1644686976166349</v>
+        <v>0.1861880108163155</v>
       </c>
       <c r="D10">
-        <v>-0.1109750465820594</v>
+        <v>-0.01701860529216343</v>
       </c>
       <c r="E10">
-        <v>-0.003867848954231725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01227494324949654</v>
+      </c>
+      <c r="F10">
+        <v>0.01995089704683439</v>
+      </c>
+      <c r="G10">
+        <v>-0.05098122927642319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007102612580981688</v>
+        <v>-0.03556592847944494</v>
       </c>
       <c r="C11">
-        <v>0.006968080677158485</v>
+        <v>-0.05282050605810329</v>
       </c>
       <c r="D11">
-        <v>0.03938656376493137</v>
+        <v>0.002395572181524939</v>
       </c>
       <c r="E11">
-        <v>0.005893978486596618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0083891431107941</v>
+      </c>
+      <c r="F11">
+        <v>-0.02152775448408057</v>
+      </c>
+      <c r="G11">
+        <v>-0.05966926142486514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006280254857170815</v>
+        <v>-0.03718037953120854</v>
       </c>
       <c r="C12">
-        <v>0.01296844501685566</v>
+        <v>-0.04808603685296593</v>
       </c>
       <c r="D12">
-        <v>0.04389238094092672</v>
+        <v>0.006225435052120517</v>
       </c>
       <c r="E12">
-        <v>-0.00419142899820651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001043883789011847</v>
+      </c>
+      <c r="F12">
+        <v>-0.002121866521648285</v>
+      </c>
+      <c r="G12">
+        <v>-0.05498090387146266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02270666739050897</v>
+        <v>-0.01862268762510867</v>
       </c>
       <c r="C13">
-        <v>0.01575063889047999</v>
+        <v>-0.03526016390647195</v>
       </c>
       <c r="D13">
-        <v>0.006753541020011002</v>
+        <v>0.02544009949734772</v>
       </c>
       <c r="E13">
-        <v>0.006929094185668548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02692872061188207</v>
+      </c>
+      <c r="F13">
+        <v>-0.007076869135046428</v>
+      </c>
+      <c r="G13">
+        <v>-0.09013982480241416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007877470117828354</v>
+        <v>-0.01038236376504502</v>
       </c>
       <c r="C14">
-        <v>0.01454145978314206</v>
+        <v>-0.02583949822093436</v>
       </c>
       <c r="D14">
-        <v>0.01147987258122536</v>
+        <v>0.008695825276168034</v>
       </c>
       <c r="E14">
-        <v>-0.01300527863308932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.003177478482512243</v>
+      </c>
+      <c r="F14">
+        <v>0.00686384929508168</v>
+      </c>
+      <c r="G14">
+        <v>-0.07762747537794874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001569227854031055</v>
+        <v>-0.03469255183787065</v>
       </c>
       <c r="C16">
-        <v>0.01300629538737001</v>
+        <v>-0.04753861787189486</v>
       </c>
       <c r="D16">
-        <v>0.04719416638742131</v>
+        <v>0.001922966208505634</v>
       </c>
       <c r="E16">
-        <v>-0.003196047791297869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007053157264158557</v>
+      </c>
+      <c r="F16">
+        <v>-0.002992954012254542</v>
+      </c>
+      <c r="G16">
+        <v>-0.06324450135541919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0141448651137342</v>
+        <v>-0.02701991117080407</v>
       </c>
       <c r="C19">
-        <v>0.02353883289474146</v>
+        <v>-0.04759756772417557</v>
       </c>
       <c r="D19">
-        <v>0.01396773147141107</v>
+        <v>0.01690505620307864</v>
       </c>
       <c r="E19">
-        <v>-0.0116555965110154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05962967997502112</v>
+      </c>
+      <c r="F19">
+        <v>-0.01956454353249468</v>
+      </c>
+      <c r="G19">
+        <v>-0.1027908854492196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01111956008230209</v>
+        <v>-0.0165817391548768</v>
       </c>
       <c r="C20">
-        <v>0.009349641785167263</v>
+        <v>-0.03430233532353538</v>
       </c>
       <c r="D20">
-        <v>0.007971534411728</v>
+        <v>0.0134086336414196</v>
       </c>
       <c r="E20">
-        <v>0.001618811264865768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02730197355548603</v>
+      </c>
+      <c r="F20">
+        <v>0.004698504951517234</v>
+      </c>
+      <c r="G20">
+        <v>-0.0798161559595553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01506141162581306</v>
+        <v>-0.01662398716006434</v>
       </c>
       <c r="C21">
-        <v>0.02319060772329078</v>
+        <v>-0.03680687519467969</v>
       </c>
       <c r="D21">
-        <v>0.02295258920297871</v>
+        <v>0.01717136956305338</v>
       </c>
       <c r="E21">
-        <v>-0.01351517527593147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0370095692514433</v>
+      </c>
+      <c r="F21">
+        <v>0.0003117288695228945</v>
+      </c>
+      <c r="G21">
+        <v>-0.1077667297677159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004497465486038603</v>
+        <v>-0.0281854602853778</v>
       </c>
       <c r="C24">
-        <v>0.001546861111932463</v>
+        <v>-0.0502785182413796</v>
       </c>
       <c r="D24">
-        <v>0.0419309128358709</v>
+        <v>0.007410453493138175</v>
       </c>
       <c r="E24">
-        <v>0.0008160522187025291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004863424079406407</v>
+      </c>
+      <c r="F24">
+        <v>-0.01489879069644639</v>
+      </c>
+      <c r="G24">
+        <v>-0.06368649562090017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01210140792074495</v>
+        <v>-0.04354082695587921</v>
       </c>
       <c r="C25">
-        <v>0.0177114409425506</v>
+        <v>-0.05682410177450124</v>
       </c>
       <c r="D25">
-        <v>0.04419986219295839</v>
+        <v>0.01135189139789101</v>
       </c>
       <c r="E25">
-        <v>0.0006515228209836332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.002746541961119441</v>
+      </c>
+      <c r="F25">
+        <v>-0.009950071712567746</v>
+      </c>
+      <c r="G25">
+        <v>-0.0683704230359671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02316164688704858</v>
+        <v>-0.01595310818157769</v>
       </c>
       <c r="C26">
-        <v>0.01102650980118907</v>
+        <v>-0.008073138577341364</v>
       </c>
       <c r="D26">
-        <v>-0.007799507193898385</v>
+        <v>0.02327092984154251</v>
       </c>
       <c r="E26">
-        <v>-0.01233406611729164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002543830452204529</v>
+      </c>
+      <c r="F26">
+        <v>0.00739461627392073</v>
+      </c>
+      <c r="G26">
+        <v>-0.06449530386521034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04279232683209282</v>
+        <v>-0.1133802303854178</v>
       </c>
       <c r="C28">
-        <v>0.236356321060524</v>
+        <v>0.236991470115079</v>
       </c>
       <c r="D28">
-        <v>-0.1615774665469278</v>
+        <v>-0.00778222066238907</v>
       </c>
       <c r="E28">
-        <v>-0.024771783635617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0009611964592122139</v>
+      </c>
+      <c r="F28">
+        <v>0.02000099383868218</v>
+      </c>
+      <c r="G28">
+        <v>-0.06838722976047654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008192794358052995</v>
+        <v>-0.01266583080728871</v>
       </c>
       <c r="C29">
-        <v>0.01814856457394474</v>
+        <v>-0.02044029612374557</v>
       </c>
       <c r="D29">
-        <v>0.01039511960904731</v>
+        <v>0.007443390865097232</v>
       </c>
       <c r="E29">
-        <v>-0.007736062865318206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.005880232837433203</v>
+      </c>
+      <c r="F29">
+        <v>0.01668556124434941</v>
+      </c>
+      <c r="G29">
+        <v>-0.06769405383846536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02348756080458022</v>
+        <v>-0.04794935759568547</v>
       </c>
       <c r="C30">
-        <v>0.004771713750101298</v>
+        <v>-0.06203322652484086</v>
       </c>
       <c r="D30">
-        <v>0.0548315981134679</v>
+        <v>0.02778841192775465</v>
       </c>
       <c r="E30">
-        <v>0.05127776082533364</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04662952623738894</v>
+      </c>
+      <c r="F30">
+        <v>-0.04687511701570009</v>
+      </c>
+      <c r="G30">
+        <v>-0.07146202794174074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009737627168655734</v>
+        <v>-0.05424204510107813</v>
       </c>
       <c r="C31">
-        <v>0.04276626918670311</v>
+        <v>-0.03378112112064829</v>
       </c>
       <c r="D31">
-        <v>0.0432377484993905</v>
+        <v>0.003166467126504216</v>
       </c>
       <c r="E31">
-        <v>-0.010325342487288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006260792477472891</v>
+      </c>
+      <c r="F31">
+        <v>0.03863579461449611</v>
+      </c>
+      <c r="G31">
+        <v>-0.06473096749373228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006063926323197965</v>
+        <v>-0.000346828859205625</v>
       </c>
       <c r="C32">
-        <v>0.01903141558002986</v>
+        <v>-0.02675474135191574</v>
       </c>
       <c r="D32">
-        <v>-0.005606710364379873</v>
+        <v>-0.004030661004197411</v>
       </c>
       <c r="E32">
-        <v>-0.04911488138089156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01550789605346713</v>
+      </c>
+      <c r="F32">
+        <v>-0.04186574176832984</v>
+      </c>
+      <c r="G32">
+        <v>-0.09074603745409256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01381224010214887</v>
+        <v>-0.02990242535034312</v>
       </c>
       <c r="C33">
-        <v>0.02639337684785745</v>
+        <v>-0.04691974679478952</v>
       </c>
       <c r="D33">
-        <v>0.01680222368808068</v>
+        <v>0.01477023482133367</v>
       </c>
       <c r="E33">
-        <v>0.02598211144920206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03144814604118765</v>
+      </c>
+      <c r="F33">
+        <v>-0.01727204267529968</v>
+      </c>
+      <c r="G33">
+        <v>-0.09893768479822714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004013690503405138</v>
+        <v>-0.0410159944328426</v>
       </c>
       <c r="C34">
-        <v>0.0186727777999195</v>
+        <v>-0.06135105175442496</v>
       </c>
       <c r="D34">
-        <v>0.04852748117734931</v>
+        <v>-0.004325713007151647</v>
       </c>
       <c r="E34">
-        <v>-0.007969437337005759</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001700579048961346</v>
+      </c>
+      <c r="F34">
+        <v>-0.02126292876917562</v>
+      </c>
+      <c r="G34">
+        <v>-0.070658478316315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01319217590648253</v>
+        <v>-0.0162217877526944</v>
       </c>
       <c r="C36">
-        <v>0.02221479537168617</v>
+        <v>-0.008601531214323905</v>
       </c>
       <c r="D36">
-        <v>0.001651116153945507</v>
+        <v>0.01146112910307718</v>
       </c>
       <c r="E36">
-        <v>-0.004550084178666853</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0008840993522135829</v>
+      </c>
+      <c r="F36">
+        <v>0.009072985756527992</v>
+      </c>
+      <c r="G36">
+        <v>-0.05784638037895737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003609413887863626</v>
+        <v>-0.03377149945566712</v>
       </c>
       <c r="C38">
-        <v>0.0361674884052266</v>
+        <v>-0.02874256468239052</v>
       </c>
       <c r="D38">
-        <v>0.03091297044879359</v>
+        <v>-0.007844732117707027</v>
       </c>
       <c r="E38">
-        <v>-0.005873422385149709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002415765572306464</v>
+      </c>
+      <c r="F38">
+        <v>0.01534676135831999</v>
+      </c>
+      <c r="G38">
+        <v>-0.06523893298666995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004921510083923936</v>
+        <v>-0.03629434627777546</v>
       </c>
       <c r="C39">
-        <v>-0.01725397858358269</v>
+        <v>-0.08135267644148404</v>
       </c>
       <c r="D39">
-        <v>0.08758655371239424</v>
+        <v>0.01212879937503844</v>
       </c>
       <c r="E39">
-        <v>0.0145246505892466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02374802196942924</v>
+      </c>
+      <c r="F39">
+        <v>-0.02825971203120698</v>
+      </c>
+      <c r="G39">
+        <v>-0.06583326462662631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01274078626844439</v>
+        <v>-0.02015249829224893</v>
       </c>
       <c r="C40">
-        <v>0.0232022969333268</v>
+        <v>-0.03154047951710866</v>
       </c>
       <c r="D40">
-        <v>0.02287727424245454</v>
+        <v>0.01367608742727279</v>
       </c>
       <c r="E40">
-        <v>-0.002545065853836702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02270651810227151</v>
+      </c>
+      <c r="F40">
+        <v>-0.01175199751162863</v>
+      </c>
+      <c r="G40">
+        <v>-0.07189469633117936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006369472133635689</v>
+        <v>-0.01723153652888879</v>
       </c>
       <c r="C41">
-        <v>0.02239065613067925</v>
+        <v>-0.003824875563672346</v>
       </c>
       <c r="D41">
-        <v>-0.009594544667136048</v>
+        <v>0.003912269038889271</v>
       </c>
       <c r="E41">
-        <v>-0.004631592237669785</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.000417550359308368</v>
+      </c>
+      <c r="F41">
+        <v>0.01069834707715601</v>
+      </c>
+      <c r="G41">
+        <v>-0.0441635303168854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09343602568118205</v>
+        <v>-0.0128862259581936</v>
       </c>
       <c r="C42">
-        <v>-0.003665064103005461</v>
+        <v>-0.03729685486828602</v>
       </c>
       <c r="D42">
-        <v>0.2452746507929283</v>
+        <v>0.09406429287298504</v>
       </c>
       <c r="E42">
-        <v>0.4132580532119335</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.0321760373144148</v>
+      </c>
+      <c r="F42">
+        <v>0.03729423935887623</v>
+      </c>
+      <c r="G42">
+        <v>0.1755482509567351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007810077030108919</v>
+        <v>-0.03321838329244347</v>
       </c>
       <c r="C43">
-        <v>0.02613645748681094</v>
+        <v>-0.01449033540395182</v>
       </c>
       <c r="D43">
-        <v>-0.01482231791189839</v>
+        <v>0.005260009901166718</v>
       </c>
       <c r="E43">
-        <v>0.003068560524844528</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0117075301745618</v>
+      </c>
+      <c r="F43">
+        <v>0.003407559631810418</v>
+      </c>
+      <c r="G43">
+        <v>-0.06699379625006067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003296440455975752</v>
+        <v>-0.01889307135029959</v>
       </c>
       <c r="C44">
-        <v>0.007270264731146257</v>
+        <v>-0.04828486813469346</v>
       </c>
       <c r="D44">
-        <v>0.02586351998347309</v>
+        <v>0.005829297829098165</v>
       </c>
       <c r="E44">
-        <v>-0.004410102497402551</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01622090266057414</v>
+      </c>
+      <c r="F44">
+        <v>0.004224404894224027</v>
+      </c>
+      <c r="G44">
+        <v>-0.08190691957786148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01125013246425457</v>
+        <v>-0.009552393479845813</v>
       </c>
       <c r="C46">
-        <v>0.01620483980072539</v>
+        <v>-0.01641323614349832</v>
       </c>
       <c r="D46">
-        <v>0.01013781786688592</v>
+        <v>0.01140924588849732</v>
       </c>
       <c r="E46">
-        <v>-0.002093983887344569</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.004657390909613396</v>
+      </c>
+      <c r="F46">
+        <v>0.01854156126564536</v>
+      </c>
+      <c r="G46">
+        <v>-0.06704291710461285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004296975780765436</v>
+        <v>-0.0793084998160042</v>
       </c>
       <c r="C47">
-        <v>0.05466679585841033</v>
+        <v>-0.06343755226130082</v>
       </c>
       <c r="D47">
-        <v>0.05795148280501538</v>
+        <v>-0.005173825002587474</v>
       </c>
       <c r="E47">
-        <v>-0.005757957554204727</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009366151964911472</v>
+      </c>
+      <c r="F47">
+        <v>0.0534876586558866</v>
+      </c>
+      <c r="G47">
+        <v>-0.06153747878871558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004219005819221856</v>
+        <v>-0.02240278244531963</v>
       </c>
       <c r="C48">
-        <v>0.02799160092109368</v>
+        <v>-0.0104166327138006</v>
       </c>
       <c r="D48">
-        <v>0.009613576583507463</v>
+        <v>0.0007418043098988568</v>
       </c>
       <c r="E48">
-        <v>-0.005017657199578892</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003232995979194395</v>
+      </c>
+      <c r="F48">
+        <v>0.022275318424997</v>
+      </c>
+      <c r="G48">
+        <v>-0.0654681212469911</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006181277990362885</v>
+        <v>-0.07989870619003483</v>
       </c>
       <c r="C50">
-        <v>0.05458447229870439</v>
+        <v>-0.06505397260870582</v>
       </c>
       <c r="D50">
-        <v>0.06336242215218792</v>
+        <v>-0.003420552232808507</v>
       </c>
       <c r="E50">
-        <v>-0.03147190510682599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0131659877214405</v>
+      </c>
+      <c r="F50">
+        <v>0.05841183299429065</v>
+      </c>
+      <c r="G50">
+        <v>-0.07890851777582128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007336216903935286</v>
+        <v>-0.0162189947440084</v>
       </c>
       <c r="C51">
-        <v>0.01688085404594575</v>
+        <v>-0.03140202426314639</v>
       </c>
       <c r="D51">
-        <v>-0.003568000568553602</v>
+        <v>0.009503590755543849</v>
       </c>
       <c r="E51">
-        <v>-0.006345157168915426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01395626258902411</v>
+      </c>
+      <c r="F51">
+        <v>-0.02343959944347478</v>
+      </c>
+      <c r="G51">
+        <v>-0.09771473410724359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007507789783512017</v>
+        <v>-0.08626852872251776</v>
       </c>
       <c r="C53">
-        <v>0.06601092404539388</v>
+        <v>-0.07941413698816362</v>
       </c>
       <c r="D53">
-        <v>0.1191404341553245</v>
+        <v>-0.004584044644931488</v>
       </c>
       <c r="E53">
-        <v>-0.003762048254206904</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03322192009019504</v>
+      </c>
+      <c r="F53">
+        <v>0.05994634256970002</v>
+      </c>
+      <c r="G53">
+        <v>-0.0469006022240182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001337792913947393</v>
+        <v>-0.03346096644642776</v>
       </c>
       <c r="C54">
-        <v>0.03569292905630463</v>
+        <v>-0.01359691974153182</v>
       </c>
       <c r="D54">
-        <v>-0.007605840564166916</v>
+        <v>-0.002544339396115446</v>
       </c>
       <c r="E54">
-        <v>-0.01389430793319619</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003775767758005374</v>
+      </c>
+      <c r="F54">
+        <v>0.007187686307714111</v>
+      </c>
+      <c r="G54">
+        <v>-0.07230271558968282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003720716391267427</v>
+        <v>-0.07498581122953599</v>
       </c>
       <c r="C55">
-        <v>0.04586328398342459</v>
+        <v>-0.0673728041411662</v>
       </c>
       <c r="D55">
-        <v>0.1025013122483096</v>
+        <v>-0.005535366679981975</v>
       </c>
       <c r="E55">
-        <v>0.00607825884563055</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02649068450342944</v>
+      </c>
+      <c r="F55">
+        <v>0.05959896432305362</v>
+      </c>
+      <c r="G55">
+        <v>-0.03135586790898621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.00648542821463925</v>
+        <v>-0.1442979335211531</v>
       </c>
       <c r="C56">
-        <v>0.09237310571375888</v>
+        <v>-0.1024545649770029</v>
       </c>
       <c r="D56">
-        <v>0.1516693555241803</v>
+        <v>-0.01290447765802942</v>
       </c>
       <c r="E56">
-        <v>0.006163441729431741</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03795176572828905</v>
+      </c>
+      <c r="F56">
+        <v>0.07814963798358199</v>
+      </c>
+      <c r="G56">
+        <v>-0.008978505998957715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02399579952815683</v>
+        <v>-0.00845126755193922</v>
       </c>
       <c r="C57">
-        <v>0.01597002857459446</v>
+        <v>-0.008771821998187615</v>
       </c>
       <c r="D57">
-        <v>0.03917062723441012</v>
+        <v>0.02343356664334274</v>
       </c>
       <c r="E57">
-        <v>0.0005029522601302098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02573886018723523</v>
+      </c>
+      <c r="F57">
+        <v>-0.007814175711151837</v>
+      </c>
+      <c r="G57">
+        <v>-0.03145134999577399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01537101002141985</v>
+        <v>-0.07788614542397963</v>
       </c>
       <c r="C58">
-        <v>0.09383064214406424</v>
+        <v>-0.03352682087430512</v>
       </c>
       <c r="D58">
-        <v>0.07937991680829264</v>
+        <v>0.01975788184049725</v>
       </c>
       <c r="E58">
-        <v>0.2792986065252402</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9396214925476499</v>
+      </c>
+      <c r="F58">
+        <v>0.2317349306154858</v>
+      </c>
+      <c r="G58">
+        <v>0.08636677765902524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03995473117743938</v>
+        <v>-0.1539367818871467</v>
       </c>
       <c r="C59">
-        <v>0.2526962440988778</v>
+        <v>0.2128479809266786</v>
       </c>
       <c r="D59">
-        <v>-0.1629383475095797</v>
+        <v>-0.01432036201990507</v>
       </c>
       <c r="E59">
-        <v>-0.01579514464918402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.008187773816847163</v>
+      </c>
+      <c r="F59">
+        <v>-0.0008019099597466432</v>
+      </c>
+      <c r="G59">
+        <v>-0.03678773150022688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04118156606711863</v>
+        <v>-0.2892412700885147</v>
       </c>
       <c r="C60">
-        <v>0.1632647546277088</v>
+        <v>-0.08909478728360948</v>
       </c>
       <c r="D60">
-        <v>0.07358208148316477</v>
+        <v>0.01278501252816014</v>
       </c>
       <c r="E60">
-        <v>0.02333442560517679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.004158640930381916</v>
+      </c>
+      <c r="F60">
+        <v>-0.3523193577934787</v>
+      </c>
+      <c r="G60">
+        <v>0.1251482848987356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003409994604583994</v>
+        <v>-0.03770445722585549</v>
       </c>
       <c r="C61">
-        <v>0.008090189947151057</v>
+        <v>-0.06518434984605057</v>
       </c>
       <c r="D61">
-        <v>0.06398541180680183</v>
+        <v>0.005452859837719191</v>
       </c>
       <c r="E61">
-        <v>0.004494044574219836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01140203596285214</v>
+      </c>
+      <c r="F61">
+        <v>-0.01654686954582455</v>
+      </c>
+      <c r="G61">
+        <v>-0.05788193977336811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007759749343865338</v>
+        <v>-0.01540146818736765</v>
       </c>
       <c r="C63">
-        <v>0.009167180895858752</v>
+        <v>-0.02828864580481875</v>
       </c>
       <c r="D63">
-        <v>0.008594249206121294</v>
+        <v>0.007935286162139867</v>
       </c>
       <c r="E63">
-        <v>-0.008586474141382755</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.002966313130486839</v>
+      </c>
+      <c r="F63">
+        <v>0.01800210300693146</v>
+      </c>
+      <c r="G63">
+        <v>-0.06663322547289832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00878840321098092</v>
+        <v>-0.05092386909288019</v>
       </c>
       <c r="C64">
-        <v>0.03142278048221619</v>
+        <v>-0.04418795383589938</v>
       </c>
       <c r="D64">
-        <v>0.06417392366051133</v>
+        <v>0.005738384687957512</v>
       </c>
       <c r="E64">
-        <v>0.02052653661772451</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.003986990459285292</v>
+      </c>
+      <c r="F64">
+        <v>-0.002362720717039366</v>
+      </c>
+      <c r="G64">
+        <v>-0.04962059012082414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.017021123596418</v>
+        <v>-0.08217873814078448</v>
       </c>
       <c r="C65">
-        <v>0.009386415496886168</v>
+        <v>-0.05510973677367639</v>
       </c>
       <c r="D65">
-        <v>0.1053359892032669</v>
+        <v>0.01542646073706486</v>
       </c>
       <c r="E65">
-        <v>-0.006174012860108146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02159608187304775</v>
+      </c>
+      <c r="F65">
+        <v>-0.02982667141887001</v>
+      </c>
+      <c r="G65">
+        <v>-0.02088437497578217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004908762082603299</v>
+        <v>-0.05368414696487245</v>
       </c>
       <c r="C66">
-        <v>-0.01160937843317843</v>
+        <v>-0.1110510384831342</v>
       </c>
       <c r="D66">
-        <v>0.1135785368643863</v>
+        <v>0.01206187280324863</v>
       </c>
       <c r="E66">
-        <v>0.0163280489436649</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02881900656055181</v>
+      </c>
+      <c r="F66">
+        <v>-0.03679848051906179</v>
+      </c>
+      <c r="G66">
+        <v>-0.07009632657102013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003028670737494633</v>
+        <v>-0.05550163141636999</v>
       </c>
       <c r="C67">
-        <v>0.05735987016008368</v>
+        <v>-0.03193872457898049</v>
       </c>
       <c r="D67">
-        <v>0.03726154684749163</v>
+        <v>-0.005824698348303355</v>
       </c>
       <c r="E67">
-        <v>-0.006149219219346542</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003497610638094129</v>
+      </c>
+      <c r="F67">
+        <v>0.0153496212748631</v>
+      </c>
+      <c r="G67">
+        <v>-0.06055079963476752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0573253755156717</v>
+        <v>-0.1388055160232488</v>
       </c>
       <c r="C68">
-        <v>0.2304748096931311</v>
+        <v>0.2746486309132748</v>
       </c>
       <c r="D68">
-        <v>-0.1559679569542636</v>
+        <v>0.003584055603384402</v>
       </c>
       <c r="E68">
-        <v>0.003740993068453664</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.006369478802628859</v>
+      </c>
+      <c r="F68">
+        <v>0.03211613952789016</v>
+      </c>
+      <c r="G68">
+        <v>-0.02462911596457508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0008278676139792803</v>
+        <v>-0.08246012123013985</v>
       </c>
       <c r="C69">
-        <v>0.04220620309878133</v>
+        <v>-0.06796027838225865</v>
       </c>
       <c r="D69">
-        <v>0.06232327633667484</v>
+        <v>-0.009170234133901832</v>
       </c>
       <c r="E69">
-        <v>-0.003945307466027441</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02686284760041824</v>
+      </c>
+      <c r="F69">
+        <v>0.03811941401610507</v>
+      </c>
+      <c r="G69">
+        <v>-0.0641166013674988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04279249666412267</v>
+        <v>-0.1286997393353461</v>
       </c>
       <c r="C71">
-        <v>0.2046341844726337</v>
+        <v>0.2363442098789188</v>
       </c>
       <c r="D71">
-        <v>-0.1413120673494235</v>
+        <v>-0.005143095784388354</v>
       </c>
       <c r="E71">
-        <v>-0.005834108791594647</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02487160569231512</v>
+      </c>
+      <c r="F71">
+        <v>0.01304891121032716</v>
+      </c>
+      <c r="G71">
+        <v>-0.04471516104272563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>9.010596931231613e-05</v>
+        <v>-0.08766226416150603</v>
       </c>
       <c r="C72">
-        <v>0.04814539684988894</v>
+        <v>-0.07071375131886345</v>
       </c>
       <c r="D72">
-        <v>0.1325798425206343</v>
+        <v>-0.007969402490425825</v>
       </c>
       <c r="E72">
-        <v>0.009289509590093274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003231033167447566</v>
+      </c>
+      <c r="F72">
+        <v>-0.04259833762427676</v>
+      </c>
+      <c r="G72">
+        <v>-0.04917491125079039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05437136837689746</v>
+        <v>-0.386271280495762</v>
       </c>
       <c r="C73">
-        <v>0.188809715173184</v>
+        <v>-0.1011036482307237</v>
       </c>
       <c r="D73">
-        <v>0.1612002275712637</v>
+        <v>0.02172613838306585</v>
       </c>
       <c r="E73">
-        <v>0.07348591525200837</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0638018995100451</v>
+      </c>
+      <c r="F73">
+        <v>-0.5688344237709406</v>
+      </c>
+      <c r="G73">
+        <v>0.2026175112371159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003340746075560318</v>
+        <v>-0.1140286150734636</v>
       </c>
       <c r="C74">
-        <v>0.08103532856560398</v>
+        <v>-0.1101947649405139</v>
       </c>
       <c r="D74">
-        <v>0.159731769697988</v>
+        <v>-0.01018282696051312</v>
       </c>
       <c r="E74">
-        <v>0.01946551147026665</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01592616567120838</v>
+      </c>
+      <c r="F74">
+        <v>0.07457457249524461</v>
+      </c>
+      <c r="G74">
+        <v>-0.05071004900391765</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01244793393740253</v>
+        <v>-0.2507675618310814</v>
       </c>
       <c r="C75">
-        <v>0.1885398500470352</v>
+        <v>-0.1476937997007334</v>
       </c>
       <c r="D75">
-        <v>0.2902353970523536</v>
+        <v>-0.02981203229574329</v>
       </c>
       <c r="E75">
-        <v>0.03902990290369666</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05712382457140183</v>
+      </c>
+      <c r="F75">
+        <v>0.1809097621936036</v>
+      </c>
+      <c r="G75">
+        <v>0.06322917377812363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0004086207214722335</v>
+        <v>-0.1274168295480335</v>
       </c>
       <c r="C76">
-        <v>0.1192482844573622</v>
+        <v>-0.1125408868822862</v>
       </c>
       <c r="D76">
-        <v>0.2349093956368383</v>
+        <v>-0.02043284489824872</v>
       </c>
       <c r="E76">
-        <v>-0.009582852419471384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04692650313915502</v>
+      </c>
+      <c r="F76">
+        <v>0.1181842783949792</v>
+      </c>
+      <c r="G76">
+        <v>-0.02235115253169927</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01287998118854842</v>
+        <v>-0.06805888619305965</v>
       </c>
       <c r="C77">
-        <v>0.02092977020357008</v>
+        <v>-0.05653878548607776</v>
       </c>
       <c r="D77">
-        <v>0.04444876670438729</v>
+        <v>0.01220179341595783</v>
       </c>
       <c r="E77">
-        <v>0.0135161673561455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05168042765112725</v>
+      </c>
+      <c r="F77">
+        <v>-0.01288242540958502</v>
+      </c>
+      <c r="G77">
+        <v>-0.06761835967004891</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004807107863280503</v>
+        <v>-0.04650414147921293</v>
       </c>
       <c r="C78">
-        <v>0.01630748327076446</v>
+        <v>-0.04734267933773495</v>
       </c>
       <c r="D78">
-        <v>0.06049782181075378</v>
+        <v>0.005012072763876009</v>
       </c>
       <c r="E78">
-        <v>0.009359859474777094</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02015336542310623</v>
+      </c>
+      <c r="F78">
+        <v>-0.0357413882410115</v>
+      </c>
+      <c r="G78">
+        <v>-0.06511186695586405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01588249009565773</v>
+        <v>-0.05681259018117403</v>
       </c>
       <c r="C80">
-        <v>0.09113254150537221</v>
+        <v>-0.06552547821199943</v>
       </c>
       <c r="D80">
-        <v>0.2331191166149925</v>
+        <v>0.01099989525308252</v>
       </c>
       <c r="E80">
-        <v>-0.8373912208376072</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02285378150726217</v>
+      </c>
+      <c r="F80">
+        <v>-0.008757872583025747</v>
+      </c>
+      <c r="G80">
+        <v>-0.6951722660842625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008148219373404637</v>
+        <v>-0.142941033130995</v>
       </c>
       <c r="C81">
-        <v>0.1140678494602168</v>
+        <v>-0.0903936536908304</v>
       </c>
       <c r="D81">
-        <v>0.1683670959045332</v>
+        <v>-0.01532544058270509</v>
       </c>
       <c r="E81">
-        <v>0.004656408055357451</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03343429712043654</v>
+      </c>
+      <c r="F81">
+        <v>0.128201933878188</v>
+      </c>
+      <c r="G81">
+        <v>-0.01355937602102247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1204798783342685</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05951909676881307</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00634356059686083</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08318820071253626</v>
+      </c>
+      <c r="F82">
+        <v>0.0210606984423648</v>
+      </c>
+      <c r="G82">
+        <v>-0.03436330377956234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.00744458310139006</v>
+        <v>-0.03375567681992712</v>
       </c>
       <c r="C83">
-        <v>0.02179999013777894</v>
+        <v>-0.02252206829504429</v>
       </c>
       <c r="D83">
-        <v>0.01898327565905446</v>
+        <v>0.005822198490021442</v>
       </c>
       <c r="E83">
-        <v>-0.002691282584867451</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.03033740403733919</v>
+      </c>
+      <c r="F83">
+        <v>-0.03545497681373808</v>
+      </c>
+      <c r="G83">
+        <v>-0.05214663505355822</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01820666312210521</v>
+        <v>-0.2180853349826257</v>
       </c>
       <c r="C85">
-        <v>0.1463392880552674</v>
+        <v>-0.141646422261257</v>
       </c>
       <c r="D85">
-        <v>0.2654450817863587</v>
+        <v>-0.01745849223287875</v>
       </c>
       <c r="E85">
-        <v>0.03541460582039346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09636480116191969</v>
+      </c>
+      <c r="F85">
+        <v>0.1431165270237579</v>
+      </c>
+      <c r="G85">
+        <v>0.1046017331837384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00850762856572629</v>
+        <v>-0.01773511217837684</v>
       </c>
       <c r="C86">
-        <v>0.0307551166845054</v>
+        <v>-0.02200168682292208</v>
       </c>
       <c r="D86">
-        <v>0.004603343467665721</v>
+        <v>0.01095974170665162</v>
       </c>
       <c r="E86">
-        <v>0.02854315515192189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04166306686765504</v>
+      </c>
+      <c r="F86">
+        <v>-0.0417567178433766</v>
+      </c>
+      <c r="G86">
+        <v>-0.1318090046532382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007825512231156465</v>
+        <v>-0.0242670188279279</v>
       </c>
       <c r="C87">
-        <v>0.01303426733000197</v>
+        <v>-0.0256480737209642</v>
       </c>
       <c r="D87">
-        <v>0.04192553999881405</v>
+        <v>0.01100761680036175</v>
       </c>
       <c r="E87">
-        <v>0.008123328308119928</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08455000319233734</v>
+      </c>
+      <c r="F87">
+        <v>-0.02114280016023865</v>
+      </c>
+      <c r="G87">
+        <v>-0.09287715715505843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02803634210555321</v>
+        <v>-0.09186896175961799</v>
       </c>
       <c r="C88">
-        <v>0.03510749118384932</v>
+        <v>-0.06480710644725177</v>
       </c>
       <c r="D88">
-        <v>0.03213662575224985</v>
+        <v>0.02298660430358832</v>
       </c>
       <c r="E88">
-        <v>-0.003109459345937871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01193427082294022</v>
+      </c>
+      <c r="F88">
+        <v>0.02201257023007815</v>
+      </c>
+      <c r="G88">
+        <v>-0.06235100455932133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07942951209084342</v>
+        <v>-0.2142922958278167</v>
       </c>
       <c r="C89">
-        <v>0.3660216610584134</v>
+        <v>0.3760077210177344</v>
       </c>
       <c r="D89">
-        <v>-0.2434731327526868</v>
+        <v>-0.003916101255516958</v>
       </c>
       <c r="E89">
-        <v>-0.01442062881399767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02262459957825294</v>
+      </c>
+      <c r="F89">
+        <v>0.02445949790213287</v>
+      </c>
+      <c r="G89">
+        <v>-0.0488429890183938</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06086707108234558</v>
+        <v>-0.1923434243946375</v>
       </c>
       <c r="C90">
-        <v>0.2839509766890826</v>
+        <v>0.333286276194639</v>
       </c>
       <c r="D90">
-        <v>-0.2151560535684085</v>
+        <v>-0.008337690030263634</v>
       </c>
       <c r="E90">
-        <v>0.004039524852855588</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02033623814226531</v>
+      </c>
+      <c r="F90">
+        <v>0.05139501565953591</v>
+      </c>
+      <c r="G90">
+        <v>-0.01684197191237147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.008203226083549304</v>
+        <v>-0.1965093761514432</v>
       </c>
       <c r="C91">
-        <v>0.162078027042174</v>
+        <v>-0.1367852721660869</v>
       </c>
       <c r="D91">
-        <v>0.2416169414424685</v>
+        <v>-0.02340558476685217</v>
       </c>
       <c r="E91">
-        <v>0.01002770943137562</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07048686389424257</v>
+      </c>
+      <c r="F91">
+        <v>0.1567182021255927</v>
+      </c>
+      <c r="G91">
+        <v>-0.002440344739024267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02774007820057016</v>
+        <v>-0.1952942355234893</v>
       </c>
       <c r="C92">
-        <v>0.3081276224877522</v>
+        <v>0.2642176574398103</v>
       </c>
       <c r="D92">
-        <v>-0.09585612625245989</v>
+        <v>-0.04397838468986794</v>
       </c>
       <c r="E92">
-        <v>0.002121805461233498</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01262921428132242</v>
+      </c>
+      <c r="F92">
+        <v>0.07129183161778992</v>
+      </c>
+      <c r="G92">
+        <v>-0.1111747776008749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05922479352047409</v>
+        <v>-0.2182949773219111</v>
       </c>
       <c r="C93">
-        <v>0.3136290114429748</v>
+        <v>0.3292016441948697</v>
       </c>
       <c r="D93">
-        <v>-0.2025241599935709</v>
+        <v>-0.01477410048851912</v>
       </c>
       <c r="E93">
-        <v>0.02986000266074228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005635593287967743</v>
+      </c>
+      <c r="F93">
+        <v>0.0356889237243389</v>
+      </c>
+      <c r="G93">
+        <v>-0.0130525951699664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.0323734177970784</v>
+        <v>-0.3173844617032932</v>
       </c>
       <c r="C94">
-        <v>0.1925404278886124</v>
+        <v>-0.1637530214644366</v>
       </c>
       <c r="D94">
-        <v>0.2419414845111401</v>
+        <v>-0.01669150642351058</v>
       </c>
       <c r="E94">
-        <v>0.03057562761761026</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1604401687198143</v>
+      </c>
+      <c r="F94">
+        <v>0.4763726554775601</v>
+      </c>
+      <c r="G94">
+        <v>0.2601559866631988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004105738558493013</v>
+        <v>-0.09877992115149518</v>
       </c>
       <c r="C95">
-        <v>0.04121898663141385</v>
+        <v>-0.08138687598614337</v>
       </c>
       <c r="D95">
-        <v>0.08394617731356092</v>
+        <v>-0.008260893447990853</v>
       </c>
       <c r="E95">
-        <v>0.1337696794547056</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06392585960314781</v>
+      </c>
+      <c r="F95">
+        <v>-0.1902950527643674</v>
+      </c>
+      <c r="G95">
+        <v>0.06852020478837546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.0155814963935263</v>
+        <v>-0.1998540631708347</v>
       </c>
       <c r="C98">
-        <v>0.1689766687509094</v>
+        <v>-0.03974873746105196</v>
       </c>
       <c r="D98">
-        <v>0.1114847906968168</v>
+        <v>-0.01259181757582366</v>
       </c>
       <c r="E98">
-        <v>0.05707072530283345</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06410099527618465</v>
+      </c>
+      <c r="F98">
+        <v>-0.2457007833985001</v>
+      </c>
+      <c r="G98">
+        <v>0.0255638931031637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00797800559559512</v>
+        <v>-0.01248088671775642</v>
       </c>
       <c r="C101">
-        <v>0.01784456029698134</v>
+        <v>-0.02039705283236975</v>
       </c>
       <c r="D101">
-        <v>0.0101467155719498</v>
+        <v>0.007266656666613146</v>
       </c>
       <c r="E101">
-        <v>-0.008186863637952551</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.006131848385425026</v>
+      </c>
+      <c r="F101">
+        <v>0.01770954499301557</v>
+      </c>
+      <c r="G101">
+        <v>-0.06734088974746803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01867374926833624</v>
+        <v>-0.1206800158240923</v>
       </c>
       <c r="C102">
-        <v>0.08425374583045085</v>
+        <v>-0.08347159832304497</v>
       </c>
       <c r="D102">
-        <v>0.13030351480379</v>
+        <v>0.001419873436303396</v>
       </c>
       <c r="E102">
-        <v>0.01058689258556202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03293572613012824</v>
+      </c>
+      <c r="F102">
+        <v>0.04162004417554085</v>
+      </c>
+      <c r="G102">
+        <v>0.005887426224381969</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002070215616899016</v>
+        <v>-0.00344242581561299</v>
       </c>
       <c r="C103">
-        <v>0.01227391805758393</v>
+        <v>-0.002891111596008008</v>
       </c>
       <c r="D103">
-        <v>0.02245423837080152</v>
+        <v>0.0001275736837622938</v>
       </c>
       <c r="E103">
-        <v>-0.01465762440667293</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001601099182494906</v>
+      </c>
+      <c r="F103">
+        <v>0.005497854713609268</v>
+      </c>
+      <c r="G103">
+        <v>-0.01311777673046181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.976036764385652</v>
+        <v>-0.02326355186713085</v>
       </c>
       <c r="C104">
-        <v>-0.1711247155091869</v>
+        <v>0.03626166686916409</v>
       </c>
       <c r="D104">
-        <v>-0.004343411022148774</v>
+        <v>0.9874542762562354</v>
       </c>
       <c r="E104">
-        <v>-0.03770042298898828</v>
+        <v>-0.04434138817489622</v>
+      </c>
+      <c r="F104">
+        <v>0.04136577206248458</v>
+      </c>
+      <c r="G104">
+        <v>0.01901680690394983</v>
       </c>
     </row>
   </sheetData>
